--- a/SocScrapeContent/sheets/cabrillo.xlsx
+++ b/SocScrapeContent/sheets/cabrillo.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Pathways" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Clubs" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Athletics" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -36,16 +38,52 @@
       <b val="1"/>
       <sz val="12"/>
     </font>
+    <font>
+      <color rgb="00ffffff"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ff8888"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0088ff88"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008888ff"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0088ffff"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ff88ff"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffff88"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -232,11 +270,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00666666"/>
+      </left>
+      <right style="thin">
+        <color rgb="00666666"/>
+      </right>
+      <top style="thin">
+        <color rgb="00666666"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00666666"/>
+      </left>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00666666"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -249,6 +317,21 @@
     <xf borderId="11" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="12" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="13" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="14" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="15" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="14" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="15" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="14" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="15" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="14" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="15" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="14" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="15" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="14" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="15" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="14" fillId="8" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="15" fillId="8" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -2235,4 +2318,1708 @@
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="12" t="inlineStr">
+        <is>
+          <t>Club Name</t>
+        </is>
+      </c>
+      <c r="B1" s="12" t="inlineStr">
+        <is>
+          <t>Prominent club? (Choose up to 6 clubs to be placed in a Top Clubs category at the top of the clubs page)</t>
+        </is>
+      </c>
+      <c r="C1" s="12" t="inlineStr">
+        <is>
+          <t>Description (1-2 sentences) for top clubs</t>
+        </is>
+      </c>
+      <c r="D1" s="12" t="inlineStr">
+        <is>
+          <t>Category (Arts, Cultural, Volunteering &amp; Advocacy, Social, STEM, or Other)</t>
+        </is>
+      </c>
+      <c r="E1" s="12" t="inlineStr">
+        <is>
+          <t>Field Trips</t>
+        </is>
+      </c>
+      <c r="F1" s="12" t="inlineStr">
+        <is>
+          <t>Scholarships</t>
+        </is>
+      </c>
+      <c r="G1" s="12" t="inlineStr">
+        <is>
+          <t>Volunteer Opportunities</t>
+        </is>
+      </c>
+      <c r="H1" s="13" t="inlineStr">
+        <is>
+          <t>Does the club participate in competitions?</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="14" t="inlineStr">
+        <is>
+          <t>Cabrillo Couriers</t>
+        </is>
+      </c>
+      <c r="B2" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14" t="inlineStr"/>
+      <c r="D2" s="14" t="inlineStr">
+        <is>
+          <t>Arts</t>
+        </is>
+      </c>
+      <c r="E2" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="14" t="inlineStr">
+        <is>
+          <t>Club SACMA</t>
+        </is>
+      </c>
+      <c r="B3" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="14" t="inlineStr"/>
+      <c r="D3" s="14" t="inlineStr">
+        <is>
+          <t>Arts</t>
+        </is>
+      </c>
+      <c r="E3" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="14" t="inlineStr">
+        <is>
+          <t>Drama Club/Theater</t>
+        </is>
+      </c>
+      <c r="B4" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14" t="inlineStr"/>
+      <c r="D4" s="14" t="inlineStr">
+        <is>
+          <t>Arts</t>
+        </is>
+      </c>
+      <c r="E4" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="14" t="inlineStr">
+        <is>
+          <t>FIDM/Fashion Club</t>
+        </is>
+      </c>
+      <c r="B5" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="14" t="inlineStr"/>
+      <c r="D5" s="14" t="inlineStr">
+        <is>
+          <t>Arts</t>
+        </is>
+      </c>
+      <c r="E5" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="14" t="inlineStr">
+        <is>
+          <t>Journalism</t>
+        </is>
+      </c>
+      <c r="B6" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="14" t="inlineStr"/>
+      <c r="D6" s="14" t="inlineStr">
+        <is>
+          <t>Arts</t>
+        </is>
+      </c>
+      <c r="E6" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="14" t="inlineStr">
+        <is>
+          <t>Music Club</t>
+        </is>
+      </c>
+      <c r="B7" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="14" t="inlineStr"/>
+      <c r="D7" s="14" t="inlineStr">
+        <is>
+          <t>Arts</t>
+        </is>
+      </c>
+      <c r="E7" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="14" t="inlineStr">
+        <is>
+          <t>Yearbook</t>
+        </is>
+      </c>
+      <c r="B8" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="14" t="inlineStr"/>
+      <c r="D8" s="14" t="inlineStr">
+        <is>
+          <t>Arts</t>
+        </is>
+      </c>
+      <c r="E8" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="16" t="inlineStr">
+        <is>
+          <t>Anime Club</t>
+        </is>
+      </c>
+      <c r="B9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="16" t="inlineStr"/>
+      <c r="D9" s="16" t="inlineStr">
+        <is>
+          <t>Cultural</t>
+        </is>
+      </c>
+      <c r="E9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="16" t="inlineStr">
+        <is>
+          <t>Pacific Islander Club</t>
+        </is>
+      </c>
+      <c r="B10" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" s="16" t="inlineStr"/>
+      <c r="D10" s="16" t="inlineStr">
+        <is>
+          <t>Cultural</t>
+        </is>
+      </c>
+      <c r="E10" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="16" t="inlineStr">
+        <is>
+          <t>La Familia</t>
+        </is>
+      </c>
+      <c r="B11" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" s="16" t="inlineStr"/>
+      <c r="D11" s="16" t="inlineStr">
+        <is>
+          <t>Cultural</t>
+        </is>
+      </c>
+      <c r="E11" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="18" t="inlineStr">
+        <is>
+          <t>5000 Pies</t>
+        </is>
+      </c>
+      <c r="B12" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" s="18" t="inlineStr"/>
+      <c r="D12" s="18" t="inlineStr">
+        <is>
+          <t>Volunteering and Advocacy</t>
+        </is>
+      </c>
+      <c r="E12" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="18" t="inlineStr">
+        <is>
+          <t>Cabrillo Green Club</t>
+        </is>
+      </c>
+      <c r="B13" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" s="18" t="inlineStr"/>
+      <c r="D13" s="18" t="inlineStr">
+        <is>
+          <t>Volunteering and Advocacy</t>
+        </is>
+      </c>
+      <c r="E13" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="18" t="inlineStr">
+        <is>
+          <t>CA for Justice</t>
+        </is>
+      </c>
+      <c r="B14" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" s="18" t="inlineStr"/>
+      <c r="D14" s="18" t="inlineStr">
+        <is>
+          <t>Volunteering and Advocacy</t>
+        </is>
+      </c>
+      <c r="E14" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="18" t="inlineStr">
+        <is>
+          <t>Female Leadership</t>
+        </is>
+      </c>
+      <c r="B15" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" s="18" t="inlineStr"/>
+      <c r="D15" s="18" t="inlineStr">
+        <is>
+          <t>Volunteering and Advocacy</t>
+        </is>
+      </c>
+      <c r="E15" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="18" t="inlineStr">
+        <is>
+          <t>Gender &amp; Sexualitions Alliance (GSA)</t>
+        </is>
+      </c>
+      <c r="B16" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" s="18" t="inlineStr"/>
+      <c r="D16" s="18" t="inlineStr">
+        <is>
+          <t>Volunteering and Advocacy</t>
+        </is>
+      </c>
+      <c r="E16" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="18" t="inlineStr">
+        <is>
+          <t>Girl Power Club</t>
+        </is>
+      </c>
+      <c r="B17" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" s="18" t="inlineStr"/>
+      <c r="D17" s="18" t="inlineStr">
+        <is>
+          <t>Volunteering and Advocacy</t>
+        </is>
+      </c>
+      <c r="E17" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="18" t="inlineStr">
+        <is>
+          <t>Helpful Jags</t>
+        </is>
+      </c>
+      <c r="B18" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" s="18" t="inlineStr"/>
+      <c r="D18" s="18" t="inlineStr">
+        <is>
+          <t>Volunteering and Advocacy</t>
+        </is>
+      </c>
+      <c r="E18" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="18" t="inlineStr">
+        <is>
+          <t>Senior Club</t>
+        </is>
+      </c>
+      <c r="B19" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" s="18" t="inlineStr"/>
+      <c r="D19" s="18" t="inlineStr">
+        <is>
+          <t>Volunteering and Advocacy</t>
+        </is>
+      </c>
+      <c r="E19" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="18" t="inlineStr">
+        <is>
+          <t>Youth in Action</t>
+        </is>
+      </c>
+      <c r="B20" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" s="18" t="inlineStr"/>
+      <c r="D20" s="18" t="inlineStr">
+        <is>
+          <t>Volunteering and Advocacy</t>
+        </is>
+      </c>
+      <c r="E20" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="20" t="inlineStr">
+        <is>
+          <t>Jaguarettes Drill/Flag Team</t>
+        </is>
+      </c>
+      <c r="B21" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" s="20" t="inlineStr"/>
+      <c r="D21" s="20" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E21" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="20" t="inlineStr">
+        <is>
+          <t>Panjamas Steel Drums</t>
+        </is>
+      </c>
+      <c r="B22" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22" s="20" t="inlineStr"/>
+      <c r="D22" s="20" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E22" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="20" t="inlineStr">
+        <is>
+          <t>Positive Rocks</t>
+        </is>
+      </c>
+      <c r="B23" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" s="20" t="inlineStr"/>
+      <c r="D23" s="20" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E23" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="20" t="inlineStr">
+        <is>
+          <t>Young Life</t>
+        </is>
+      </c>
+      <c r="B24" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" s="20" t="inlineStr"/>
+      <c r="D24" s="20" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E24" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="22" t="inlineStr">
+        <is>
+          <t>Biology Club</t>
+        </is>
+      </c>
+      <c r="B25" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25" s="22" t="inlineStr"/>
+      <c r="D25" s="22" t="inlineStr">
+        <is>
+          <t>STEM</t>
+        </is>
+      </c>
+      <c r="E25" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="22" t="inlineStr">
+        <is>
+          <t>GEMS</t>
+        </is>
+      </c>
+      <c r="B26" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26" s="22" t="inlineStr"/>
+      <c r="D26" s="22" t="inlineStr">
+        <is>
+          <t>STEM</t>
+        </is>
+      </c>
+      <c r="E26" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="22" t="inlineStr">
+        <is>
+          <t>IC4</t>
+        </is>
+      </c>
+      <c r="B27" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" s="22" t="inlineStr"/>
+      <c r="D27" s="22" t="inlineStr">
+        <is>
+          <t>STEM</t>
+        </is>
+      </c>
+      <c r="E27" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="22" t="inlineStr">
+        <is>
+          <t>Jaguar Robotics</t>
+        </is>
+      </c>
+      <c r="B28" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28" s="22" t="inlineStr"/>
+      <c r="D28" s="22" t="inlineStr">
+        <is>
+          <t>STEM</t>
+        </is>
+      </c>
+      <c r="E28" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="22" t="inlineStr">
+        <is>
+          <t>Math Club</t>
+        </is>
+      </c>
+      <c r="B29" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29" s="22" t="inlineStr"/>
+      <c r="D29" s="22" t="inlineStr">
+        <is>
+          <t>STEM</t>
+        </is>
+      </c>
+      <c r="E29" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="22" t="inlineStr">
+        <is>
+          <t>Project Lead The Way</t>
+        </is>
+      </c>
+      <c r="B30" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" s="22" t="inlineStr"/>
+      <c r="D30" s="22" t="inlineStr">
+        <is>
+          <t>STEM</t>
+        </is>
+      </c>
+      <c r="E30" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="22" t="inlineStr">
+        <is>
+          <t>AGL</t>
+        </is>
+      </c>
+      <c r="B31" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" s="22" t="inlineStr"/>
+      <c r="D31" s="22" t="inlineStr">
+        <is>
+          <t>STEM</t>
+        </is>
+      </c>
+      <c r="E31" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="24" t="inlineStr">
+        <is>
+          <t>AP English Literature</t>
+        </is>
+      </c>
+      <c r="B32" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" s="24" t="inlineStr"/>
+      <c r="D32" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E32" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="24" t="inlineStr">
+        <is>
+          <t>AP Spanish Club</t>
+        </is>
+      </c>
+      <c r="B33" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33" s="24" t="inlineStr"/>
+      <c r="D33" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E33" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="24" t="inlineStr">
+        <is>
+          <t>Avid Club</t>
+        </is>
+      </c>
+      <c r="B34" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" s="24" t="inlineStr"/>
+      <c r="D34" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E34" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="24" t="inlineStr">
+        <is>
+          <t>Avid Seniors</t>
+        </is>
+      </c>
+      <c r="B35" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C35" s="24" t="inlineStr"/>
+      <c r="D35" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E35" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="24" t="inlineStr">
+        <is>
+          <t>Badminton Club</t>
+        </is>
+      </c>
+      <c r="B36" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36" s="24" t="inlineStr"/>
+      <c r="D36" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E36" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="24" t="inlineStr">
+        <is>
+          <t>Boys Basketball Club</t>
+        </is>
+      </c>
+      <c r="B37" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" s="24" t="inlineStr"/>
+      <c r="D37" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E37" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="24" t="inlineStr">
+        <is>
+          <t>Boys Soccer</t>
+        </is>
+      </c>
+      <c r="B38" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" s="24" t="inlineStr"/>
+      <c r="D38" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E38" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="24" t="inlineStr">
+        <is>
+          <t>Boys Volleyball Club</t>
+        </is>
+      </c>
+      <c r="B39" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C39" s="24" t="inlineStr"/>
+      <c r="D39" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E39" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="24" t="inlineStr">
+        <is>
+          <t>Cabrillo Baseball Club</t>
+        </is>
+      </c>
+      <c r="B40" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C40" s="24" t="inlineStr"/>
+      <c r="D40" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E40" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="24" t="inlineStr">
+        <is>
+          <t>Cabrillo CA Scholarship Federation</t>
+        </is>
+      </c>
+      <c r="B41" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C41" s="24" t="inlineStr"/>
+      <c r="D41" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E41" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G41" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="24" t="inlineStr">
+        <is>
+          <t>Cabrillo Dance Company</t>
+        </is>
+      </c>
+      <c r="B42" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C42" s="24" t="inlineStr"/>
+      <c r="D42" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E42" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="24" t="inlineStr">
+        <is>
+          <t>Cabrillo LaCrosse</t>
+        </is>
+      </c>
+      <c r="B43" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" s="24" t="inlineStr"/>
+      <c r="D43" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E43" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="24" t="inlineStr">
+        <is>
+          <t>Cabrillo Wrestling Club</t>
+        </is>
+      </c>
+      <c r="B44" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C44" s="24" t="inlineStr"/>
+      <c r="D44" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E44" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="24" t="inlineStr">
+        <is>
+          <t>Cal-J Club</t>
+        </is>
+      </c>
+      <c r="B45" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45" s="24" t="inlineStr"/>
+      <c r="D45" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E45" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G45" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="24" t="inlineStr">
+        <is>
+          <t>C-House Spiriti Leaders</t>
+        </is>
+      </c>
+      <c r="B46" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C46" s="24" t="inlineStr"/>
+      <c r="D46" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E46" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="24" t="inlineStr">
+        <is>
+          <t>Girls Soccer JV</t>
+        </is>
+      </c>
+      <c r="B47" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C47" s="24" t="inlineStr"/>
+      <c r="D47" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E47" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="24" t="inlineStr">
+        <is>
+          <t>Girls Soccer Team</t>
+        </is>
+      </c>
+      <c r="B48" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C48" s="24" t="inlineStr"/>
+      <c r="D48" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E48" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="24" t="inlineStr">
+        <is>
+          <t>Girls Volleyball Club</t>
+        </is>
+      </c>
+      <c r="B49" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C49" s="24" t="inlineStr"/>
+      <c r="D49" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E49" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G49" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="24" t="inlineStr">
+        <is>
+          <t>HDMI</t>
+        </is>
+      </c>
+      <c r="B50" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C50" s="24" t="inlineStr"/>
+      <c r="D50" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E50" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G50" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="24" t="inlineStr">
+        <is>
+          <t>Jaguar Football Club</t>
+        </is>
+      </c>
+      <c r="B51" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C51" s="24" t="inlineStr"/>
+      <c r="D51" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E51" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G51" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="24" t="inlineStr">
+        <is>
+          <t>Jaguars Aquatic</t>
+        </is>
+      </c>
+      <c r="B52" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C52" s="24" t="inlineStr"/>
+      <c r="D52" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E52" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G52" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="24" t="inlineStr">
+        <is>
+          <t>Lady Jags Softball Club</t>
+        </is>
+      </c>
+      <c r="B53" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C53" s="24" t="inlineStr"/>
+      <c r="D53" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E53" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G53" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="24" t="inlineStr">
+        <is>
+          <t>NJROTC</t>
+        </is>
+      </c>
+      <c r="B54" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C54" s="24" t="inlineStr"/>
+      <c r="D54" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E54" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F54" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G54" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="24" t="inlineStr">
+        <is>
+          <t>Running Club</t>
+        </is>
+      </c>
+      <c r="B55" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C55" s="24" t="inlineStr"/>
+      <c r="D55" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E55" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G55" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="24" t="inlineStr">
+        <is>
+          <t>University Scholars Club</t>
+        </is>
+      </c>
+      <c r="B56" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C56" s="24" t="inlineStr"/>
+      <c r="D56" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E56" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G56" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="24" t="inlineStr">
+        <is>
+          <t>Student Council Club</t>
+        </is>
+      </c>
+      <c r="B57" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C57" s="24" t="inlineStr"/>
+      <c r="D57" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E57" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G57" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="24" t="inlineStr">
+        <is>
+          <t>Young Entrepreneurs</t>
+        </is>
+      </c>
+      <c r="B58" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C58" s="24" t="inlineStr"/>
+      <c r="D58" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E58" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G58" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59"/>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="26" t="inlineStr">
+        <is>
+          <t>Sport</t>
+        </is>
+      </c>
+      <c r="B1" s="26" t="inlineStr">
+        <is>
+          <t>Gender (Boys, Girls, Coed)</t>
+        </is>
+      </c>
+      <c r="C1" s="26" t="inlineStr">
+        <is>
+          <t>CIF -- years gone to playoffs (since 2000)</t>
+        </is>
+      </c>
+      <c r="D1" s="26" t="inlineStr">
+        <is>
+          <t>Moore League -- years won (since 2000)</t>
+        </is>
+      </c>
+      <c r="E1" s="26" t="inlineStr">
+        <is>
+          <t>Other tournaments/awards</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>